--- a/ProyectoPooDist/excels/historial.xlsx
+++ b/ProyectoPooDist/excels/historial.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
   <si>
     <t>Fecha</t>
   </si>
@@ -197,6 +197,93 @@
   </si>
   <si>
     <t>Q. 184.0</t>
+  </si>
+  <si>
+    <t>900 productos</t>
+  </si>
+  <si>
+    <t>Q. 229500.0</t>
+  </si>
+  <si>
+    <t>Q. 2700.0</t>
+  </si>
+  <si>
+    <t>Q. 216000.0</t>
+  </si>
+  <si>
+    <t>Q. 10800.0</t>
+  </si>
+  <si>
+    <t>Q. 229748.0</t>
+  </si>
+  <si>
+    <t>Q. 2703.0</t>
+  </si>
+  <si>
+    <t>Q. 216230.0</t>
+  </si>
+  <si>
+    <t>Q. 10815.0</t>
+  </si>
+  <si>
+    <t>Q. 205.0</t>
+  </si>
+  <si>
+    <t>Q. 410.0</t>
+  </si>
+  <si>
+    <t>Q. 24.0</t>
+  </si>
+  <si>
+    <t>4 productos</t>
+  </si>
+  <si>
+    <t>Q. 820.0</t>
+  </si>
+  <si>
+    <t>Q. 760.0</t>
+  </si>
+  <si>
+    <t>Q. 48.0</t>
+  </si>
+  <si>
+    <t>3 productos</t>
+  </si>
+  <si>
+    <t>Q. 140.0</t>
+  </si>
+  <si>
+    <t>Q. 420.0</t>
+  </si>
+  <si>
+    <t>Q. 9.0</t>
+  </si>
+  <si>
+    <t>Q. 132.0</t>
+  </si>
+  <si>
+    <t>Q. 7.0</t>
+  </si>
+  <si>
+    <t>Q. 735.0</t>
+  </si>
+  <si>
+    <t>Q. 690.0</t>
+  </si>
+  <si>
+    <t>Q. 36.0</t>
+  </si>
+  <si>
+    <t>Q. 1792.0</t>
+  </si>
+  <si>
+    <t>Q. 30.0</t>
+  </si>
+  <si>
+    <t>Q. 1668.0</t>
+  </si>
+  <si>
+    <t>Q. 94.0</t>
   </si>
 </sst>
 </file>
@@ -569,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
@@ -833,6 +920,294 @@
         <v>58</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/historial.xlsx
+++ b/ProyectoPooDist/excels/historial.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
   <si>
     <t>Fecha</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>Q. 94.0</t>
+  </si>
+  <si>
+    <t>Q. 0.0</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
@@ -1208,6 +1211,38 @@
         <v>87</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/historial.xlsx
+++ b/ProyectoPooDist/excels/historial.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="110">
   <si>
     <t>Fecha</t>
   </si>
@@ -287,6 +287,69 @@
   </si>
   <si>
     <t>Q. 0.0</t>
+  </si>
+  <si>
+    <t>24 de octubre del 2024</t>
+  </si>
+  <si>
+    <t>Q. 765.0</t>
+  </si>
+  <si>
+    <t>Q. 720.0</t>
+  </si>
+  <si>
+    <t>Lopoldo Lenteja</t>
+  </si>
+  <si>
+    <t>Q. 5.0</t>
+  </si>
+  <si>
+    <t>Q. 1715.0</t>
+  </si>
+  <si>
+    <t>Q. 1610.0</t>
+  </si>
+  <si>
+    <t>5 productos</t>
+  </si>
+  <si>
+    <t>Q. 1225.0</t>
+  </si>
+  <si>
+    <t>Q. 1150.0</t>
+  </si>
+  <si>
+    <t>Q. 700.0</t>
+  </si>
+  <si>
+    <t>Q. 660.0</t>
+  </si>
+  <si>
+    <t>Q. 25.0</t>
+  </si>
+  <si>
+    <t>Q. 179.0</t>
+  </si>
+  <si>
+    <t>Q. 16.0</t>
+  </si>
+  <si>
+    <t>Q. 980.0</t>
+  </si>
+  <si>
+    <t>Q. 920.0</t>
+  </si>
+  <si>
+    <t>Q. 6056.0</t>
+  </si>
+  <si>
+    <t>Q. 75.0</t>
+  </si>
+  <si>
+    <t>Q. 5712.0</t>
+  </si>
+  <si>
+    <t>Q. 269.0</t>
   </si>
 </sst>
 </file>
@@ -659,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
@@ -1243,6 +1306,454 @@
         <v>88</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/historial.xlsx
+++ b/ProyectoPooDist/excels/historial.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="143">
   <si>
     <t>Fecha</t>
   </si>
@@ -350,6 +350,105 @@
   </si>
   <si>
     <t>Q. 269.0</t>
+  </si>
+  <si>
+    <t>26 de octubre del 2024</t>
+  </si>
+  <si>
+    <t>Pollo Inicio Pelatizado</t>
+  </si>
+  <si>
+    <t>Q. 240.0</t>
+  </si>
+  <si>
+    <t>Q. 2.0</t>
+  </si>
+  <si>
+    <t>cliente de ejemplo 2.1</t>
+  </si>
+  <si>
+    <t>Q. 960.0</t>
+  </si>
+  <si>
+    <t>Q. 8.0</t>
+  </si>
+  <si>
+    <t>Cliente de ejemplo</t>
+  </si>
+  <si>
+    <t>Q. 250.0</t>
+  </si>
+  <si>
+    <t>Q. 750.0</t>
+  </si>
+  <si>
+    <t>Q. 490.0</t>
+  </si>
+  <si>
+    <t>Q. 460.0</t>
+  </si>
+  <si>
+    <t>Q. 280.0</t>
+  </si>
+  <si>
+    <t>Q. 264.0</t>
+  </si>
+  <si>
+    <t>otro cliente</t>
+  </si>
+  <si>
+    <t>50 productos</t>
+  </si>
+  <si>
+    <t>Q. 12750.0</t>
+  </si>
+  <si>
+    <t>Q. 150.0</t>
+  </si>
+  <si>
+    <t>Q. 12000.0</t>
+  </si>
+  <si>
+    <t>Q. 600.0</t>
+  </si>
+  <si>
+    <t>Q. 1275.0</t>
+  </si>
+  <si>
+    <t>Q. 1200.0</t>
+  </si>
+  <si>
+    <t>Rigoberto Padilla</t>
+  </si>
+  <si>
+    <t>Lactomayma 22% Peletizada</t>
+  </si>
+  <si>
+    <t>Q. 188.0</t>
+  </si>
+  <si>
+    <t>Q. 564.0</t>
+  </si>
+  <si>
+    <t>Q. 552.0</t>
+  </si>
+  <si>
+    <t>Q. 376.0</t>
+  </si>
+  <si>
+    <t>Q. 368.0</t>
+  </si>
+  <si>
+    <t>Q. 18445.0</t>
+  </si>
+  <si>
+    <t>Q. 221.0</t>
+  </si>
+  <si>
+    <t>Q. 17454.0</t>
+  </si>
+  <si>
+    <t>Q. 770.0</t>
   </si>
 </sst>
 </file>
@@ -722,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
@@ -1754,6 +1853,486 @@
         <v>109</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/historial.xlsx
+++ b/ProyectoPooDist/excels/historial.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="177">
   <si>
     <t>Fecha</t>
   </si>
@@ -449,6 +449,108 @@
   </si>
   <si>
     <t>Q. 770.0</t>
+  </si>
+  <si>
+    <t>27 de octubre del 2024</t>
+  </si>
+  <si>
+    <t>Mario Leo</t>
+  </si>
+  <si>
+    <t>Q. 11.0</t>
+  </si>
+  <si>
+    <t>Q. 195.0</t>
+  </si>
+  <si>
+    <t>Q. 1365.0</t>
+  </si>
+  <si>
+    <t>Q. 91.0</t>
+  </si>
+  <si>
+    <t>30 productos</t>
+  </si>
+  <si>
+    <t>Q. 7650.0</t>
+  </si>
+  <si>
+    <t>Q. 90.0</t>
+  </si>
+  <si>
+    <t>Q. 7200.0</t>
+  </si>
+  <si>
+    <t>Q. 360.0</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Ponedora fase 2</t>
+  </si>
+  <si>
+    <t>8 productos</t>
+  </si>
+  <si>
+    <t>Q. 234.0</t>
+  </si>
+  <si>
+    <t>Q. 1872.0</t>
+  </si>
+  <si>
+    <t>Q. 1840.0</t>
+  </si>
+  <si>
+    <t>Super Vaca lechera</t>
+  </si>
+  <si>
+    <t>10 productos</t>
+  </si>
+  <si>
+    <t>Q. 202.0</t>
+  </si>
+  <si>
+    <t>Q. 2020.0</t>
+  </si>
+  <si>
+    <t>Q. 1980.0</t>
+  </si>
+  <si>
+    <t>Q. 1.0</t>
+  </si>
+  <si>
+    <t>100 productos</t>
+  </si>
+  <si>
+    <t>Q. 25500.0</t>
+  </si>
+  <si>
+    <t>Q. 300.0</t>
+  </si>
+  <si>
+    <t>Q. 24000.0</t>
+  </si>
+  <si>
+    <t>Q. 190.0</t>
+  </si>
+  <si>
+    <t>Q. 19000.0</t>
+  </si>
+  <si>
+    <t>Q. 18400.0</t>
+  </si>
+  <si>
+    <t>Q. 54570.0</t>
+  </si>
+  <si>
+    <t>Q. 726.0</t>
+  </si>
+  <si>
+    <t>Q. 51962.0</t>
+  </si>
+  <si>
+    <t>Q. 1882.0</t>
   </si>
 </sst>
 </file>
@@ -821,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
@@ -2333,6 +2435,294 @@
         <v>142</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="H50" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="I50" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I52" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="I54" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="J54" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="H55" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="I56" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="J56" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/historial.xlsx
+++ b/ProyectoPooDist/excels/historial.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="194">
   <si>
     <t>Fecha</t>
   </si>
@@ -551,6 +551,57 @@
   </si>
   <si>
     <t>Q. 1882.0</t>
+  </si>
+  <si>
+    <t>29 de octubre del 2024</t>
+  </si>
+  <si>
+    <t>Q. 19800.0</t>
+  </si>
+  <si>
+    <t>Q. 1100.0</t>
+  </si>
+  <si>
+    <t>1000 productos</t>
+  </si>
+  <si>
+    <t>Q. 235.0</t>
+  </si>
+  <si>
+    <t>Q. 235000.0</t>
+  </si>
+  <si>
+    <t>Q. 3000.0</t>
+  </si>
+  <si>
+    <t>Q. 230000.0</t>
+  </si>
+  <si>
+    <t>Q. 2000.0</t>
+  </si>
+  <si>
+    <t>Q. 190000.0</t>
+  </si>
+  <si>
+    <t>Q. 184000.0</t>
+  </si>
+  <si>
+    <t>Q. 188000.0</t>
+  </si>
+  <si>
+    <t>Q. 1000.0</t>
+  </si>
+  <si>
+    <t>Q. 662272.0</t>
+  </si>
+  <si>
+    <t>Q. 9033.0</t>
+  </si>
+  <si>
+    <t>Q. 646105.0</t>
+  </si>
+  <si>
+    <t>Q. 7134.0</t>
   </si>
 </sst>
 </file>
@@ -923,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
@@ -2723,6 +2774,294 @@
         <v>176</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="H57" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="I57" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="J57" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="H58" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="J58" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I60" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J60" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="H61" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="I61" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="H62" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="I62" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="J62" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="H63" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="I63" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J63" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H64" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="I64" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J64" t="s" s="0">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="H65" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="I65" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="J65" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/historial.xlsx
+++ b/ProyectoPooDist/excels/historial.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
@@ -20,11 +20,190 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="59">
+  <si>
+    <t>31 de octubre del 2024</t>
+  </si>
+  <si>
+    <t>Clientes Varios</t>
+  </si>
+  <si>
+    <t>venta</t>
+  </si>
+  <si>
+    <t>Pollo Inicio Pelatizado</t>
+  </si>
+  <si>
+    <t>1 productos</t>
+  </si>
+  <si>
+    <t>Q. 255.0</t>
+  </si>
+  <si>
+    <t>Q. 3.0</t>
+  </si>
+  <si>
+    <t>Q. 240.0</t>
+  </si>
+  <si>
+    <t>Q. 12.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaca Lechera </t>
+  </si>
+  <si>
+    <t>Q. 205.0</t>
+  </si>
+  <si>
+    <t>Q. 190.0</t>
+  </si>
+  <si>
+    <t>Lopoldo Lenteja</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>Forramayma</t>
+  </si>
+  <si>
+    <t>Q. 140.0</t>
+  </si>
+  <si>
+    <t>Q. 132.0</t>
+  </si>
+  <si>
+    <t>Q. 5.0</t>
+  </si>
+  <si>
+    <t>20 productos</t>
+  </si>
+  <si>
+    <t>Q. 5100.0</t>
+  </si>
+  <si>
+    <t>Q. 60.0</t>
+  </si>
+  <si>
+    <t>Q. 4800.0</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Ponedora Fase 1</t>
+  </si>
+  <si>
+    <t>Q. 245.0</t>
+  </si>
+  <si>
+    <t>Q. 230.0</t>
+  </si>
+  <si>
+    <t>Victorino</t>
+  </si>
+  <si>
+    <t>Q. 22.0</t>
+  </si>
+  <si>
+    <t>credito / pagado</t>
+  </si>
+  <si>
+    <t>169 productos</t>
+  </si>
+  <si>
+    <t>Q. 43095.0</t>
+  </si>
+  <si>
+    <t>Q. 507.0</t>
+  </si>
+  <si>
+    <t>Q. 40560.0</t>
+  </si>
+  <si>
+    <t>Q. 2028.0</t>
+  </si>
+  <si>
+    <t>Resumen</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Q. 49050.0</t>
+  </si>
+  <si>
+    <t>Q. 579.0</t>
+  </si>
+  <si>
+    <t>Q. 46152.0</t>
+  </si>
+  <si>
+    <t>Q. 2319.0</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Q. 260.0</t>
+  </si>
+  <si>
+    <t>Q. 17.0</t>
+  </si>
+  <si>
+    <t>30 productos</t>
+  </si>
+  <si>
+    <t>Q. 7650.0</t>
+  </si>
+  <si>
+    <t>Q. 90.0</t>
+  </si>
+  <si>
+    <t>Q. 7200.0</t>
+  </si>
+  <si>
+    <t>Q. 360.0</t>
+  </si>
+  <si>
+    <t>Equinos Plus</t>
+  </si>
+  <si>
+    <t>Q. 765.0</t>
+  </si>
+  <si>
+    <t>Q. 9.0</t>
+  </si>
+  <si>
+    <t>Q. 710.0</t>
+  </si>
+  <si>
+    <t>Q. 46.0</t>
+  </si>
+  <si>
+    <t>Q. 2.0</t>
+  </si>
+  <si>
+    <t>Q. 745.0</t>
+  </si>
+  <si>
+    <t>Q. 26.0</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,14 +569,719 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>